--- a/outputs/torch/resnet50.xlsx
+++ b/outputs/torch/resnet50.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="details" sheetId="1" state="visible" r:id="rId1"/>
@@ -60,18 +60,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -96,7 +96,75 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,10 +460,10 @@
   <dimension ref="A1:V183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -7950,21 +8018,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R183">
-    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>802816.0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S183">
-    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>2359296.0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T183">
-    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
       <formula>118013952.0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -7982,7 +8050,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8023,6 +8091,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/torch/resnet50.xlsx
+++ b/outputs/torch/resnet50.xlsx
@@ -782,6 +782,9 @@
       <c r="R6" t="n">
         <v>0</v>
       </c>
+      <c r="T6" t="n">
+        <v>214400</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -816,6 +819,9 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
+      <c r="T7" t="n">
+        <v>74368</v>
+      </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
@@ -1191,6 +1197,9 @@
       <c r="R16" t="n">
         <v>0</v>
       </c>
+      <c r="T16" t="n">
+        <v>16640</v>
+      </c>
     </row>
     <row r="17">
       <c r="D17" t="inlineStr">
@@ -1351,6 +1360,9 @@
       <c r="R20" t="n">
         <v>0</v>
       </c>
+      <c r="T20" t="n">
+        <v>70016</v>
+      </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
@@ -1763,6 +1775,9 @@
       <c r="R30" t="n">
         <v>0</v>
       </c>
+      <c r="T30" t="n">
+        <v>70016</v>
+      </c>
     </row>
     <row r="31">
       <c r="C31" t="inlineStr">
@@ -2172,6 +2187,9 @@
       <c r="R40" t="n">
         <v>0</v>
       </c>
+      <c r="T40" t="n">
+        <v>1216000</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
@@ -2206,6 +2224,9 @@
       <c r="R41" t="n">
         <v>0</v>
       </c>
+      <c r="T41" t="n">
+        <v>378112</v>
+      </c>
     </row>
     <row r="42">
       <c r="C42" t="inlineStr">
@@ -2581,6 +2602,9 @@
       <c r="R50" t="n">
         <v>0</v>
       </c>
+      <c r="T50" t="n">
+        <v>131584</v>
+      </c>
     </row>
     <row r="51">
       <c r="D51" t="inlineStr">
@@ -2741,6 +2765,9 @@
       <c r="R54" t="n">
         <v>0</v>
       </c>
+      <c r="T54" t="n">
+        <v>279296</v>
+      </c>
     </row>
     <row r="55">
       <c r="C55" t="inlineStr">
@@ -3153,6 +3180,9 @@
       <c r="R64" t="n">
         <v>0</v>
       </c>
+      <c r="T64" t="n">
+        <v>279296</v>
+      </c>
     </row>
     <row r="65">
       <c r="C65" t="inlineStr">
@@ -3565,6 +3595,9 @@
       <c r="R74" t="n">
         <v>0</v>
       </c>
+      <c r="T74" t="n">
+        <v>279296</v>
+      </c>
     </row>
     <row r="75">
       <c r="C75" t="inlineStr">
@@ -3974,6 +4007,9 @@
       <c r="R84" t="n">
         <v>0</v>
       </c>
+      <c r="T84" t="n">
+        <v>7088128</v>
+      </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
@@ -4008,6 +4044,9 @@
       <c r="R85" t="n">
         <v>0</v>
       </c>
+      <c r="T85" t="n">
+        <v>1509888</v>
+      </c>
     </row>
     <row r="86">
       <c r="C86" t="inlineStr">
@@ -4383,6 +4422,9 @@
       <c r="R94" t="n">
         <v>0</v>
       </c>
+      <c r="T94" t="n">
+        <v>525312</v>
+      </c>
     </row>
     <row r="95">
       <c r="D95" t="inlineStr">
@@ -4543,6 +4585,9 @@
       <c r="R98" t="n">
         <v>0</v>
       </c>
+      <c r="T98" t="n">
+        <v>1115648</v>
+      </c>
     </row>
     <row r="99">
       <c r="C99" t="inlineStr">
@@ -4955,6 +5000,9 @@
       <c r="R108" t="n">
         <v>0</v>
       </c>
+      <c r="T108" t="n">
+        <v>1115648</v>
+      </c>
     </row>
     <row r="109">
       <c r="C109" t="inlineStr">
@@ -5367,6 +5415,9 @@
       <c r="R118" t="n">
         <v>0</v>
       </c>
+      <c r="T118" t="n">
+        <v>1115648</v>
+      </c>
     </row>
     <row r="119">
       <c r="C119" t="inlineStr">
@@ -5779,6 +5830,9 @@
       <c r="R128" t="n">
         <v>0</v>
       </c>
+      <c r="T128" t="n">
+        <v>1115648</v>
+      </c>
     </row>
     <row r="129">
       <c r="C129" t="inlineStr">
@@ -6191,6 +6245,9 @@
       <c r="R138" t="n">
         <v>0</v>
       </c>
+      <c r="T138" t="n">
+        <v>1115648</v>
+      </c>
     </row>
     <row r="139">
       <c r="C139" t="inlineStr">
@@ -6600,6 +6657,9 @@
       <c r="R148" t="n">
         <v>0</v>
       </c>
+      <c r="T148" t="n">
+        <v>14953472</v>
+      </c>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
@@ -6634,6 +6694,9 @@
       <c r="R149" t="n">
         <v>0</v>
       </c>
+      <c r="T149" t="n">
+        <v>6034432</v>
+      </c>
     </row>
     <row r="150">
       <c r="C150" t="inlineStr">
@@ -7009,6 +7072,9 @@
       <c r="R158" t="n">
         <v>0</v>
       </c>
+      <c r="T158" t="n">
+        <v>2099200</v>
+      </c>
     </row>
     <row r="159">
       <c r="D159" t="inlineStr">
@@ -7169,6 +7235,9 @@
       <c r="R162" t="n">
         <v>0</v>
       </c>
+      <c r="T162" t="n">
+        <v>4459520</v>
+      </c>
     </row>
     <row r="163">
       <c r="C163" t="inlineStr">
@@ -7581,6 +7650,9 @@
       <c r="R172" t="n">
         <v>0</v>
       </c>
+      <c r="T172" t="n">
+        <v>4459520</v>
+      </c>
     </row>
     <row r="173">
       <c r="C173" t="inlineStr">
@@ -8013,23 +8085,23 @@
         <v>2049000</v>
       </c>
       <c r="T183" t="n">
-        <v>2049000</v>
+        <v>2048000</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R183">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>802816.0</formula>
+      <formula>802816</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S183">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
-      <formula>2359296.0</formula>
+      <formula>2359296</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T183">
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
-      <formula>118013952.0</formula>
+      <formula>118013952</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8067,7 +8139,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.55612945556641</v>
+        <v>32.040424</v>
       </c>
     </row>
     <row r="3">
@@ -8077,7 +8149,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.37308502197266</v>
+        <v>25.557032</v>
       </c>
     </row>
     <row r="4">
@@ -8087,7 +8159,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.808350540697575</v>
+        <v>4.138900992</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/torch/resnet50.xlsx
+++ b/outputs/torch/resnet50.xlsx
@@ -782,9 +782,6 @@
       <c r="R6" t="n">
         <v>0</v>
       </c>
-      <c r="T6" t="n">
-        <v>214400</v>
-      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -819,9 +816,6 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
-      <c r="T7" t="n">
-        <v>74368</v>
-      </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
@@ -1197,9 +1191,6 @@
       <c r="R16" t="n">
         <v>0</v>
       </c>
-      <c r="T16" t="n">
-        <v>16640</v>
-      </c>
     </row>
     <row r="17">
       <c r="D17" t="inlineStr">
@@ -1360,9 +1351,6 @@
       <c r="R20" t="n">
         <v>0</v>
       </c>
-      <c r="T20" t="n">
-        <v>70016</v>
-      </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
@@ -1775,9 +1763,6 @@
       <c r="R30" t="n">
         <v>0</v>
       </c>
-      <c r="T30" t="n">
-        <v>70016</v>
-      </c>
     </row>
     <row r="31">
       <c r="C31" t="inlineStr">
@@ -2187,9 +2172,6 @@
       <c r="R40" t="n">
         <v>0</v>
       </c>
-      <c r="T40" t="n">
-        <v>1216000</v>
-      </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
@@ -2224,9 +2206,6 @@
       <c r="R41" t="n">
         <v>0</v>
       </c>
-      <c r="T41" t="n">
-        <v>378112</v>
-      </c>
     </row>
     <row r="42">
       <c r="C42" t="inlineStr">
@@ -2602,9 +2581,6 @@
       <c r="R50" t="n">
         <v>0</v>
       </c>
-      <c r="T50" t="n">
-        <v>131584</v>
-      </c>
     </row>
     <row r="51">
       <c r="D51" t="inlineStr">
@@ -2765,9 +2741,6 @@
       <c r="R54" t="n">
         <v>0</v>
       </c>
-      <c r="T54" t="n">
-        <v>279296</v>
-      </c>
     </row>
     <row r="55">
       <c r="C55" t="inlineStr">
@@ -3180,9 +3153,6 @@
       <c r="R64" t="n">
         <v>0</v>
       </c>
-      <c r="T64" t="n">
-        <v>279296</v>
-      </c>
     </row>
     <row r="65">
       <c r="C65" t="inlineStr">
@@ -3595,9 +3565,6 @@
       <c r="R74" t="n">
         <v>0</v>
       </c>
-      <c r="T74" t="n">
-        <v>279296</v>
-      </c>
     </row>
     <row r="75">
       <c r="C75" t="inlineStr">
@@ -4007,9 +3974,6 @@
       <c r="R84" t="n">
         <v>0</v>
       </c>
-      <c r="T84" t="n">
-        <v>7088128</v>
-      </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
@@ -4044,9 +4008,6 @@
       <c r="R85" t="n">
         <v>0</v>
       </c>
-      <c r="T85" t="n">
-        <v>1509888</v>
-      </c>
     </row>
     <row r="86">
       <c r="C86" t="inlineStr">
@@ -4422,9 +4383,6 @@
       <c r="R94" t="n">
         <v>0</v>
       </c>
-      <c r="T94" t="n">
-        <v>525312</v>
-      </c>
     </row>
     <row r="95">
       <c r="D95" t="inlineStr">
@@ -4585,9 +4543,6 @@
       <c r="R98" t="n">
         <v>0</v>
       </c>
-      <c r="T98" t="n">
-        <v>1115648</v>
-      </c>
     </row>
     <row r="99">
       <c r="C99" t="inlineStr">
@@ -5000,9 +4955,6 @@
       <c r="R108" t="n">
         <v>0</v>
       </c>
-      <c r="T108" t="n">
-        <v>1115648</v>
-      </c>
     </row>
     <row r="109">
       <c r="C109" t="inlineStr">
@@ -5415,9 +5367,6 @@
       <c r="R118" t="n">
         <v>0</v>
       </c>
-      <c r="T118" t="n">
-        <v>1115648</v>
-      </c>
     </row>
     <row r="119">
       <c r="C119" t="inlineStr">
@@ -5830,9 +5779,6 @@
       <c r="R128" t="n">
         <v>0</v>
       </c>
-      <c r="T128" t="n">
-        <v>1115648</v>
-      </c>
     </row>
     <row r="129">
       <c r="C129" t="inlineStr">
@@ -6245,9 +6191,6 @@
       <c r="R138" t="n">
         <v>0</v>
       </c>
-      <c r="T138" t="n">
-        <v>1115648</v>
-      </c>
     </row>
     <row r="139">
       <c r="C139" t="inlineStr">
@@ -6657,9 +6600,6 @@
       <c r="R148" t="n">
         <v>0</v>
       </c>
-      <c r="T148" t="n">
-        <v>14953472</v>
-      </c>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
@@ -6694,9 +6634,6 @@
       <c r="R149" t="n">
         <v>0</v>
       </c>
-      <c r="T149" t="n">
-        <v>6034432</v>
-      </c>
     </row>
     <row r="150">
       <c r="C150" t="inlineStr">
@@ -7072,9 +7009,6 @@
       <c r="R158" t="n">
         <v>0</v>
       </c>
-      <c r="T158" t="n">
-        <v>2099200</v>
-      </c>
     </row>
     <row r="159">
       <c r="D159" t="inlineStr">
@@ -7235,9 +7169,6 @@
       <c r="R162" t="n">
         <v>0</v>
       </c>
-      <c r="T162" t="n">
-        <v>4459520</v>
-      </c>
     </row>
     <row r="163">
       <c r="C163" t="inlineStr">
@@ -7649,9 +7580,6 @@
       </c>
       <c r="R172" t="n">
         <v>0</v>
-      </c>
-      <c r="T172" t="n">
-        <v>4459520</v>
       </c>
     </row>
     <row r="173">
@@ -8159,7 +8087,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.138900992</v>
+        <v>4.089184256</v>
       </c>
     </row>
   </sheetData>
